--- a/data/trans_orig/CONS_HIP-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/CONS_HIP-Estudios-trans_orig.xlsx
@@ -546,7 +546,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Consumo de hipnóticos en País Vasco</t>
+          <t>Consumo de hipnóticos en País Vasco (tasa de respuesta: 99,45%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -2157,7 +2157,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Consumo de hipnóticos en Andalucia</t>
+          <t>Consumo de hipnóticos en Andalucia (tasa de respuesta: 99,84%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -3768,7 +3768,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Consumo de hipnóticos en C.Valenciana</t>
+          <t>Consumo de hipnóticos en C.Valenciana (tasa de respuesta: 99,76%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -5379,7 +5379,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Consumo de hipnóticos en Barcelona</t>
+          <t>Consumo de hipnóticos en Barcelona (tasa de respuesta: 99,77%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_orig/CONS_HIP-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/CONS_HIP-Estudios-trans_orig.xlsx
@@ -736,32 +736,32 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>8793</t>
+          <t>8518</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>6454</t>
+          <t>6470</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>11748</t>
+          <t>11005</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>9,98%</t>
+          <t>10,32%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>7,33%</t>
+          <t>7,84%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>13,34%</t>
+          <t>13,33%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
@@ -771,32 +771,32 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>29264</t>
+          <t>27768</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>25273</t>
+          <t>24346</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>33492</t>
+          <t>32389</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>22,91%</t>
+          <t>22,86%</t>
         </is>
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>19,78%</t>
+          <t>20,05%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>26,22%</t>
+          <t>26,67%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
@@ -806,32 +806,32 @@
       </c>
       <c r="R4" s="2" t="inlineStr">
         <is>
-          <t>38057</t>
+          <t>36286</t>
         </is>
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>33149</t>
+          <t>31113</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>43290</t>
+          <t>40525</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
         <is>
-          <t>17,63%</t>
+          <t>17,79%</t>
         </is>
       </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>15,36%</t>
+          <t>15,25%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>20,06%</t>
+          <t>19,87%</t>
         </is>
       </c>
     </row>
@@ -849,32 +849,32 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>79271</t>
+          <t>74024</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>76316</t>
+          <t>71537</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>81610</t>
+          <t>76072</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>90,02%</t>
+          <t>89,68%</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>86,66%</t>
+          <t>86,67%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>92,67%</t>
+          <t>92,16%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -884,32 +884,32 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>98480</t>
+          <t>93684</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>94252</t>
+          <t>89063</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>102471</t>
+          <t>97106</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>77,09%</t>
+          <t>77,14%</t>
         </is>
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>73,78%</t>
+          <t>73,33%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>80,22%</t>
+          <t>79,95%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
@@ -919,32 +919,32 @@
       </c>
       <c r="R5" s="2" t="inlineStr">
         <is>
-          <t>177752</t>
+          <t>167708</t>
         </is>
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>172519</t>
+          <t>163469</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>182660</t>
+          <t>172881</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
         <is>
-          <t>82,37%</t>
+          <t>82,21%</t>
         </is>
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>79,94%</t>
+          <t>80,13%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>84,64%</t>
+          <t>84,75%</t>
         </is>
       </c>
     </row>
@@ -962,17 +962,17 @@
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>88064</t>
+          <t>82542</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>88064</t>
+          <t>82542</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>88064</t>
+          <t>82542</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -997,17 +997,17 @@
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>127744</t>
+          <t>121452</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>127744</t>
+          <t>121452</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>127744</t>
+          <t>121452</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
@@ -1032,17 +1032,17 @@
       </c>
       <c r="R6" s="2" t="inlineStr">
         <is>
-          <t>215809</t>
+          <t>203994</t>
         </is>
       </c>
       <c r="S6" s="2" t="inlineStr">
         <is>
-          <t>215809</t>
+          <t>203994</t>
         </is>
       </c>
       <c r="T6" s="2" t="inlineStr">
         <is>
-          <t>215809</t>
+          <t>203994</t>
         </is>
       </c>
       <c r="U6" s="2" t="inlineStr">
@@ -1079,32 +1079,32 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>27193</t>
+          <t>25677</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>22524</t>
+          <t>21647</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>31920</t>
+          <t>29910</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>6,0%</t>
+          <t>5,56%</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>4,97%</t>
+          <t>4,69%</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>7,04%</t>
+          <t>6,48%</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -1114,32 +1114,32 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>43803</t>
+          <t>44138</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>38615</t>
+          <t>39120</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>49825</t>
+          <t>49444</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>10,14%</t>
+          <t>9,93%</t>
         </is>
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>8,94%</t>
+          <t>8,8%</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>11,54%</t>
+          <t>11,13%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
@@ -1149,32 +1149,32 @@
       </c>
       <c r="R7" s="2" t="inlineStr">
         <is>
-          <t>70996</t>
+          <t>69815</t>
         </is>
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>64533</t>
+          <t>63329</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>77925</t>
+          <t>77102</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
         <is>
-          <t>8,02%</t>
+          <t>7,71%</t>
         </is>
       </c>
       <c r="V7" s="2" t="inlineStr">
         <is>
-          <t>7,29%</t>
+          <t>6,99%</t>
         </is>
       </c>
       <c r="W7" s="2" t="inlineStr">
         <is>
-          <t>8,8%</t>
+          <t>8,51%</t>
         </is>
       </c>
     </row>
@@ -1192,32 +1192,32 @@
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>426298</t>
+          <t>436002</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>421571</t>
+          <t>431769</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>430967</t>
+          <t>440032</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>94,0%</t>
+          <t>94,44%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>92,96%</t>
+          <t>93,52%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>95,03%</t>
+          <t>95,31%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
@@ -1227,32 +1227,32 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>387999</t>
+          <t>400219</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>381977</t>
+          <t>394913</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>393187</t>
+          <t>405237</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>89,86%</t>
+          <t>90,07%</t>
         </is>
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>88,46%</t>
+          <t>88,87%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>91,06%</t>
+          <t>91,2%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
@@ -1262,32 +1262,32 @@
       </c>
       <c r="R8" s="2" t="inlineStr">
         <is>
-          <t>814297</t>
+          <t>836220</t>
         </is>
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>807368</t>
+          <t>828933</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>820760</t>
+          <t>842706</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
         <is>
-          <t>91,98%</t>
+          <t>92,29%</t>
         </is>
       </c>
       <c r="V8" s="2" t="inlineStr">
         <is>
-          <t>91,2%</t>
+          <t>91,49%</t>
         </is>
       </c>
       <c r="W8" s="2" t="inlineStr">
         <is>
-          <t>92,71%</t>
+          <t>93,01%</t>
         </is>
       </c>
     </row>
@@ -1305,17 +1305,17 @@
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>453491</t>
+          <t>461679</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>453491</t>
+          <t>461679</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>453491</t>
+          <t>461679</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1340,17 +1340,17 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>431802</t>
+          <t>444357</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>431802</t>
+          <t>444357</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>431802</t>
+          <t>444357</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -1375,17 +1375,17 @@
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
-          <t>885293</t>
+          <t>906035</t>
         </is>
       </c>
       <c r="S9" s="2" t="inlineStr">
         <is>
-          <t>885293</t>
+          <t>906035</t>
         </is>
       </c>
       <c r="T9" s="2" t="inlineStr">
         <is>
-          <t>885293</t>
+          <t>906035</t>
         </is>
       </c>
       <c r="U9" s="2" t="inlineStr">
@@ -1422,32 +1422,32 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>4089</t>
+          <t>5316</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>2767</t>
+          <t>3636</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>5948</t>
+          <t>7713</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>2,7%</t>
+          <t>3,03%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>1,82%</t>
+          <t>2,07%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>3,92%</t>
+          <t>4,39%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
@@ -1457,32 +1457,32 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>7682</t>
+          <t>9348</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>5729</t>
+          <t>6900</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>9951</t>
+          <t>12522</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>3,95%</t>
+          <t>4,1%</t>
         </is>
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>2,95%</t>
+          <t>3,03%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>5,12%</t>
+          <t>5,49%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
@@ -1492,32 +1492,32 @@
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
-          <t>11770</t>
+          <t>14664</t>
         </is>
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>9155</t>
+          <t>11611</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>14791</t>
+          <t>18709</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
         <is>
-          <t>3,4%</t>
+          <t>3,63%</t>
         </is>
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>2,65%</t>
+          <t>2,88%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>4,28%</t>
+          <t>4,64%</t>
         </is>
       </c>
     </row>
@@ -1535,32 +1535,32 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>147536</t>
+          <t>170245</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>145677</t>
+          <t>167848</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>148858</t>
+          <t>171925</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>97,3%</t>
+          <t>96,97%</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>96,08%</t>
+          <t>95,61%</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>98,18%</t>
+          <t>97,93%</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1570,32 +1570,32 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>186555</t>
+          <t>218646</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>184286</t>
+          <t>215472</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>188508</t>
+          <t>221094</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>96,05%</t>
+          <t>95,9%</t>
         </is>
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>94,88%</t>
+          <t>94,51%</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>97,05%</t>
+          <t>96,97%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
@@ -1605,32 +1605,32 @@
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
-          <t>334093</t>
+          <t>388891</t>
         </is>
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>331072</t>
+          <t>384846</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>336708</t>
+          <t>391944</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
         <is>
-          <t>96,6%</t>
+          <t>96,37%</t>
         </is>
       </c>
       <c r="V11" s="2" t="inlineStr">
         <is>
-          <t>95,72%</t>
+          <t>95,36%</t>
         </is>
       </c>
       <c r="W11" s="2" t="inlineStr">
         <is>
-          <t>97,35%</t>
+          <t>97,12%</t>
         </is>
       </c>
     </row>
@@ -1648,17 +1648,17 @@
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>151625</t>
+          <t>175561</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>151625</t>
+          <t>175561</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>151625</t>
+          <t>175561</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1683,17 +1683,17 @@
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>194237</t>
+          <t>227994</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>194237</t>
+          <t>227994</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>194237</t>
+          <t>227994</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
@@ -1718,17 +1718,17 @@
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t>345863</t>
+          <t>403555</t>
         </is>
       </c>
       <c r="S12" s="2" t="inlineStr">
         <is>
-          <t>345863</t>
+          <t>403555</t>
         </is>
       </c>
       <c r="T12" s="2" t="inlineStr">
         <is>
-          <t>345863</t>
+          <t>403555</t>
         </is>
       </c>
       <c r="U12" s="2" t="inlineStr">
@@ -1765,32 +1765,32 @@
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>40075</t>
+          <t>39511</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>35140</t>
+          <t>34446</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>46000</t>
+          <t>44799</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>5,78%</t>
+          <t>5,49%</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>5,07%</t>
+          <t>4,79%</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>6,64%</t>
+          <t>6,22%</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -1800,32 +1800,32 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>80749</t>
+          <t>81254</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>73226</t>
+          <t>74823</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>88229</t>
+          <t>89186</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>10,71%</t>
+          <t>10,24%</t>
         </is>
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>9,71%</t>
+          <t>9,43%</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>11,7%</t>
+          <t>11,24%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
@@ -1835,32 +1835,32 @@
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>120824</t>
+          <t>120765</t>
         </is>
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>111914</t>
+          <t>111932</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>130044</t>
+          <t>130806</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
         <is>
-          <t>8,35%</t>
+          <t>7,98%</t>
         </is>
       </c>
       <c r="V13" s="2" t="inlineStr">
         <is>
-          <t>7,73%</t>
+          <t>7,4%</t>
         </is>
       </c>
       <c r="W13" s="2" t="inlineStr">
         <is>
-          <t>8,99%</t>
+          <t>8,64%</t>
         </is>
       </c>
     </row>
@@ -1878,32 +1878,32 @@
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>653106</t>
+          <t>680270</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>647181</t>
+          <t>674982</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>658041</t>
+          <t>685335</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>94,22%</t>
+          <t>94,51%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>93,36%</t>
+          <t>93,78%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>94,93%</t>
+          <t>95,21%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
@@ -1913,32 +1913,32 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>673035</t>
+          <t>712549</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>665555</t>
+          <t>704617</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>680558</t>
+          <t>718980</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>89,29%</t>
+          <t>89,76%</t>
         </is>
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>88,3%</t>
+          <t>88,76%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>90,29%</t>
+          <t>90,57%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
@@ -1948,32 +1948,32 @@
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
-          <t>1326141</t>
+          <t>1392819</t>
         </is>
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>1316921</t>
+          <t>1382778</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>1335051</t>
+          <t>1401652</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
         <is>
-          <t>91,65%</t>
+          <t>92,02%</t>
         </is>
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>91,01%</t>
+          <t>91,36%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>92,27%</t>
+          <t>92,6%</t>
         </is>
       </c>
     </row>
@@ -1991,17 +1991,17 @@
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>693181</t>
+          <t>719781</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>693181</t>
+          <t>719781</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>693181</t>
+          <t>719781</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -2026,17 +2026,17 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>753784</t>
+          <t>793803</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>753784</t>
+          <t>793803</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>753784</t>
+          <t>793803</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
@@ -2061,17 +2061,17 @@
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>1446965</t>
+          <t>1513584</t>
         </is>
       </c>
       <c r="S15" s="2" t="inlineStr">
         <is>
-          <t>1446965</t>
+          <t>1513584</t>
         </is>
       </c>
       <c r="T15" s="2" t="inlineStr">
         <is>
-          <t>1446965</t>
+          <t>1513584</t>
         </is>
       </c>
       <c r="U15" s="2" t="inlineStr">
@@ -2352,12 +2352,12 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>17782</t>
+          <t>16519</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>33292</t>
+          <t>32857</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -2367,12 +2367,12 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>7,81%</t>
+          <t>7,25%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>14,61%</t>
+          <t>14,42%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
@@ -2387,12 +2387,12 @@
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>77910</t>
+          <t>76555</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>107798</t>
+          <t>106620</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
@@ -2402,12 +2402,12 @@
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>19,74%</t>
+          <t>19,39%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>27,31%</t>
+          <t>27,01%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
@@ -2422,12 +2422,12 @@
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>97929</t>
+          <t>98868</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>133924</t>
+          <t>131284</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
@@ -2437,12 +2437,12 @@
       </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>15,73%</t>
+          <t>15,88%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>21,51%</t>
+          <t>21,09%</t>
         </is>
       </c>
     </row>
@@ -2465,12 +2465,12 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>194515</t>
+          <t>194950</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>210025</t>
+          <t>211288</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -2480,12 +2480,12 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>85,39%</t>
+          <t>85,58%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>92,19%</t>
+          <t>92,75%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -2500,12 +2500,12 @@
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>286962</t>
+          <t>288140</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>316850</t>
+          <t>318205</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
@@ -2515,12 +2515,12 @@
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>72,69%</t>
+          <t>72,99%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>80,26%</t>
+          <t>80,61%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
@@ -2535,12 +2535,12 @@
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>488643</t>
+          <t>491283</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>524638</t>
+          <t>523699</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
@@ -2550,12 +2550,12 @@
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>78,49%</t>
+          <t>78,91%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>84,27%</t>
+          <t>84,12%</t>
         </is>
       </c>
     </row>
@@ -2695,12 +2695,12 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>26974</t>
+          <t>28222</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>68854</t>
+          <t>68819</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -2710,12 +2710,12 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>1,91%</t>
+          <t>2,0%</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>4,89%</t>
+          <t>4,88%</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -2730,12 +2730,12 @@
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>58093</t>
+          <t>57970</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>121499</t>
+          <t>121520</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
@@ -2745,7 +2745,7 @@
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>4,19%</t>
+          <t>4,18%</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
@@ -2765,12 +2765,12 @@
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>99880</t>
+          <t>103676</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>182972</t>
+          <t>182137</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
@@ -2780,12 +2780,12 @@
       </c>
       <c r="V7" s="2" t="inlineStr">
         <is>
-          <t>3,57%</t>
+          <t>3,71%</t>
         </is>
       </c>
       <c r="W7" s="2" t="inlineStr">
         <is>
-          <t>6,55%</t>
+          <t>6,52%</t>
         </is>
       </c>
     </row>
@@ -2808,12 +2808,12 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>1340539</t>
+          <t>1340574</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>1382419</t>
+          <t>1381171</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -2823,12 +2823,12 @@
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>95,11%</t>
+          <t>95,12%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>98,09%</t>
+          <t>98,0%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
@@ -2843,12 +2843,12 @@
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>1264312</t>
+          <t>1264291</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>1327718</t>
+          <t>1327841</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
@@ -2863,7 +2863,7 @@
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>95,81%</t>
+          <t>95,82%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
@@ -2878,12 +2878,12 @@
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>2612232</t>
+          <t>2613067</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>2695324</t>
+          <t>2691528</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
@@ -2893,12 +2893,12 @@
       </c>
       <c r="V8" s="2" t="inlineStr">
         <is>
-          <t>93,45%</t>
+          <t>93,48%</t>
         </is>
       </c>
       <c r="W8" s="2" t="inlineStr">
         <is>
-          <t>96,43%</t>
+          <t>96,29%</t>
         </is>
       </c>
     </row>
@@ -3038,12 +3038,12 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>13466</t>
+          <t>13511</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>31480</t>
+          <t>30948</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -3053,12 +3053,12 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>2,93%</t>
+          <t>2,94%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>6,85%</t>
+          <t>6,73%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
@@ -3073,12 +3073,12 @@
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>18752</t>
+          <t>19680</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>35504</t>
+          <t>36193</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
@@ -3088,12 +3088,12 @@
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>4,23%</t>
+          <t>4,44%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>8,01%</t>
+          <t>8,17%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
@@ -3108,12 +3108,12 @@
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>37198</t>
+          <t>36676</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>61136</t>
+          <t>61060</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
@@ -3123,12 +3123,12 @@
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>4,12%</t>
+          <t>4,06%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>6,77%</t>
+          <t>6,76%</t>
         </is>
       </c>
     </row>
@@ -3151,12 +3151,12 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>428321</t>
+          <t>428853</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>446335</t>
+          <t>446290</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -3166,12 +3166,12 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>93,15%</t>
+          <t>93,27%</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>97,07%</t>
+          <t>97,06%</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -3186,12 +3186,12 @@
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>407710</t>
+          <t>407021</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>424462</t>
+          <t>423534</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
@@ -3201,12 +3201,12 @@
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>91,99%</t>
+          <t>91,83%</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>95,77%</t>
+          <t>95,56%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
@@ -3221,12 +3221,12 @@
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>841879</t>
+          <t>841955</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>865817</t>
+          <t>866339</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
@@ -3236,12 +3236,12 @@
       </c>
       <c r="V11" s="2" t="inlineStr">
         <is>
-          <t>93,23%</t>
+          <t>93,24%</t>
         </is>
       </c>
       <c r="W11" s="2" t="inlineStr">
         <is>
-          <t>95,88%</t>
+          <t>95,94%</t>
         </is>
       </c>
     </row>
@@ -3381,12 +3381,12 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>65206</t>
+          <t>64186</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>120246</t>
+          <t>119724</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -3396,12 +3396,12 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>3,11%</t>
+          <t>3,06%</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>5,73%</t>
+          <t>5,71%</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -3416,12 +3416,12 @@
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>149323</t>
+          <t>152112</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>247265</t>
+          <t>244388</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
@@ -3431,12 +3431,12 @@
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>6,71%</t>
+          <t>6,84%</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>11,12%</t>
+          <t>10,99%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
@@ -3451,12 +3451,12 @@
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>234749</t>
+          <t>247100</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>350375</t>
+          <t>352090</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
@@ -3466,12 +3466,12 @@
       </c>
       <c r="V13" s="2" t="inlineStr">
         <is>
-          <t>5,43%</t>
+          <t>5,72%</t>
         </is>
       </c>
       <c r="W13" s="2" t="inlineStr">
         <is>
-          <t>8,11%</t>
+          <t>8,15%</t>
         </is>
       </c>
     </row>
@@ -3494,12 +3494,12 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>1976755</t>
+          <t>1977277</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>2031795</t>
+          <t>2032815</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -3509,12 +3509,12 @@
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>94,27%</t>
+          <t>94,29%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>96,89%</t>
+          <t>96,94%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
@@ -3529,12 +3529,12 @@
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>1976520</t>
+          <t>1979397</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>2074462</t>
+          <t>2071673</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
@@ -3544,12 +3544,12 @@
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>88,88%</t>
+          <t>89,01%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>93,29%</t>
+          <t>93,16%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
@@ -3564,12 +3564,12 @@
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>3970411</t>
+          <t>3968696</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>4086037</t>
+          <t>4073686</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
@@ -3579,12 +3579,12 @@
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>91,89%</t>
+          <t>91,85%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>94,57%</t>
+          <t>94,28%</t>
         </is>
       </c>
     </row>
@@ -5574,12 +5574,12 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>9036</t>
+          <t>9209</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>24316</t>
+          <t>25174</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -5589,12 +5589,12 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>9,17%</t>
+          <t>9,34%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>24,67%</t>
+          <t>25,54%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
@@ -5609,12 +5609,12 @@
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>27343</t>
+          <t>27527</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>46842</t>
+          <t>47855</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
@@ -5624,12 +5624,12 @@
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>22,91%</t>
+          <t>23,07%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>39,25%</t>
+          <t>40,1%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
@@ -5644,12 +5644,12 @@
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>40326</t>
+          <t>39122</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>66033</t>
+          <t>65033</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
@@ -5659,12 +5659,12 @@
       </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>18,51%</t>
+          <t>17,95%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>30,3%</t>
+          <t>29,85%</t>
         </is>
       </c>
     </row>
@@ -5687,12 +5687,12 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>74239</t>
+          <t>73381</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>89519</t>
+          <t>89346</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -5702,12 +5702,12 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>75,33%</t>
+          <t>74,46%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>90,83%</t>
+          <t>90,66%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -5722,12 +5722,12 @@
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>72502</t>
+          <t>71489</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>92001</t>
+          <t>91817</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
@@ -5737,12 +5737,12 @@
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>60,75%</t>
+          <t>59,9%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>77,09%</t>
+          <t>76,93%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
@@ -5757,12 +5757,12 @@
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>151866</t>
+          <t>152866</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>177573</t>
+          <t>178777</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
@@ -5772,12 +5772,12 @@
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>69,7%</t>
+          <t>70,15%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>81,49%</t>
+          <t>82,05%</t>
         </is>
       </c>
     </row>
@@ -5917,12 +5917,12 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>22985</t>
+          <t>22785</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>37371</t>
+          <t>37350</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -5932,7 +5932,7 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>6,45%</t>
+          <t>6,39%</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
@@ -5952,12 +5952,12 @@
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>40677</t>
+          <t>40843</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>58534</t>
+          <t>58207</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
@@ -5967,12 +5967,12 @@
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>11,48%</t>
+          <t>11,53%</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>16,52%</t>
+          <t>16,43%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
@@ -5987,12 +5987,12 @@
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>68577</t>
+          <t>68186</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>91550</t>
+          <t>92282</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
@@ -6002,12 +6002,12 @@
       </c>
       <c r="V7" s="2" t="inlineStr">
         <is>
-          <t>9,65%</t>
+          <t>9,59%</t>
         </is>
       </c>
       <c r="W7" s="2" t="inlineStr">
         <is>
-          <t>12,88%</t>
+          <t>12,98%</t>
         </is>
       </c>
     </row>
@@ -6030,12 +6030,12 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>319160</t>
+          <t>319181</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>333546</t>
+          <t>333746</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -6050,7 +6050,7 @@
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>93,55%</t>
+          <t>93,61%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
@@ -6065,12 +6065,12 @@
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>295744</t>
+          <t>296071</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>313601</t>
+          <t>313435</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
@@ -6080,12 +6080,12 @@
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>83,48%</t>
+          <t>83,57%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>88,52%</t>
+          <t>88,47%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
@@ -6100,12 +6100,12 @@
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>619260</t>
+          <t>618528</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>642233</t>
+          <t>642624</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
@@ -6115,12 +6115,12 @@
       </c>
       <c r="V8" s="2" t="inlineStr">
         <is>
-          <t>87,12%</t>
+          <t>87,02%</t>
         </is>
       </c>
       <c r="W8" s="2" t="inlineStr">
         <is>
-          <t>90,35%</t>
+          <t>90,41%</t>
         </is>
       </c>
     </row>
@@ -6260,12 +6260,12 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>8510</t>
+          <t>7935</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>16415</t>
+          <t>16431</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -6275,7 +6275,7 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>3,8%</t>
+          <t>3,54%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
@@ -6295,12 +6295,12 @@
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>20352</t>
+          <t>20401</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>34808</t>
+          <t>34212</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
@@ -6310,12 +6310,12 @@
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>7,2%</t>
+          <t>7,22%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>12,31%</t>
+          <t>12,1%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
@@ -6330,12 +6330,12 @@
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>31207</t>
+          <t>31217</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>46860</t>
+          <t>47033</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
@@ -6350,7 +6350,7 @@
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>9,25%</t>
+          <t>9,28%</t>
         </is>
       </c>
     </row>
@@ -6373,12 +6373,12 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>207631</t>
+          <t>207615</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>215536</t>
+          <t>216111</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -6393,7 +6393,7 @@
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>96,2%</t>
+          <t>96,46%</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -6408,12 +6408,12 @@
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>247874</t>
+          <t>248470</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>262330</t>
+          <t>262281</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
@@ -6423,12 +6423,12 @@
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>87,69%</t>
+          <t>87,9%</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>92,8%</t>
+          <t>92,78%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
@@ -6443,12 +6443,12 @@
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>459868</t>
+          <t>459695</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>475521</t>
+          <t>475511</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
@@ -6458,7 +6458,7 @@
       </c>
       <c r="V11" s="2" t="inlineStr">
         <is>
-          <t>90,75%</t>
+          <t>90,72%</t>
         </is>
       </c>
       <c r="W11" s="2" t="inlineStr">
@@ -6603,12 +6603,12 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>46256</t>
+          <t>46101</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>68217</t>
+          <t>68221</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -6618,12 +6618,12 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>6,81%</t>
+          <t>6,79%</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>10,04%</t>
+          <t>10,05%</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -6638,12 +6638,12 @@
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>96477</t>
+          <t>97159</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>129039</t>
+          <t>128402</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
@@ -6653,12 +6653,12 @@
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>12,76%</t>
+          <t>12,85%</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>17,06%</t>
+          <t>16,98%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
@@ -6673,12 +6673,12 @@
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>149177</t>
+          <t>149906</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>189377</t>
+          <t>187275</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
@@ -6688,12 +6688,12 @@
       </c>
       <c r="V13" s="2" t="inlineStr">
         <is>
-          <t>10,39%</t>
+          <t>10,44%</t>
         </is>
       </c>
       <c r="W13" s="2" t="inlineStr">
         <is>
-          <t>13,19%</t>
+          <t>13,05%</t>
         </is>
       </c>
     </row>
@@ -6716,12 +6716,12 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>610915</t>
+          <t>610911</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>632876</t>
+          <t>633031</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -6731,12 +6731,12 @@
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>89,96%</t>
+          <t>89,95%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>93,19%</t>
+          <t>93,21%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
@@ -6751,12 +6751,12 @@
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>627266</t>
+          <t>627903</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>659828</t>
+          <t>659146</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
@@ -6766,12 +6766,12 @@
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>82,94%</t>
+          <t>83,02%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>87,24%</t>
+          <t>87,15%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
@@ -6786,12 +6786,12 @@
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>1246059</t>
+          <t>1248161</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>1286259</t>
+          <t>1285530</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
@@ -6801,12 +6801,12 @@
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>86,81%</t>
+          <t>86,95%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>89,61%</t>
+          <t>89,56%</t>
         </is>
       </c>
     </row>

--- a/data/trans_orig/CONS_HIP-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/CONS_HIP-Estudios-trans_orig.xlsx
@@ -7,10 +7,10 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="País Vasco" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Andalucia" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Andalucia" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Barcelona" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="C.Valenciana" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Barcelona" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="País Vasco" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -546,7 +546,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Consumo de hipnóticos en País Vasco (tasa de respuesta: 99,45%)</t>
+          <t>Consumo de hipnóticos en Andalucia (tasa de respuesta: 99,84%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -731,107 +731,107 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>35</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>8518</t>
+          <t>26320</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>6470</t>
+          <t>17852</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>11005</t>
+          <t>35181</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>10,32%</t>
+          <t>10,33%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>7,84%</t>
+          <t>7,0%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>13,33%</t>
+          <t>13,8%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>178</t>
+          <t>153</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>27768</t>
+          <t>93156</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>24346</t>
+          <t>80021</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>32389</t>
+          <t>108103</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>22,86%</t>
+          <t>21,55%</t>
         </is>
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>20,05%</t>
+          <t>18,51%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>26,67%</t>
+          <t>25,01%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
         <is>
-          <t>232</t>
+          <t>188</t>
         </is>
       </c>
       <c r="R4" s="2" t="inlineStr">
         <is>
-          <t>36286</t>
+          <t>119477</t>
         </is>
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>31113</t>
+          <t>105275</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>40525</t>
+          <t>135411</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
         <is>
-          <t>17,79%</t>
+          <t>17,39%</t>
         </is>
       </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>15,25%</t>
+          <t>15,32%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>19,87%</t>
+          <t>19,71%</t>
         </is>
       </c>
     </row>
@@ -844,107 +844,107 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>449</t>
+          <t>254</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>74024</t>
+          <t>228577</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>71537</t>
+          <t>219716</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>76072</t>
+          <t>237045</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>89,68%</t>
+          <t>89,67%</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>86,67%</t>
+          <t>86,2%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>92,16%</t>
+          <t>93,0%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>577</t>
+          <t>541</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>93684</t>
+          <t>339110</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>89063</t>
+          <t>324163</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>97106</t>
+          <t>352245</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>77,14%</t>
+          <t>78,45%</t>
         </is>
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>73,33%</t>
+          <t>74,99%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>79,95%</t>
+          <t>81,49%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
         <is>
-          <t>1026</t>
+          <t>795</t>
         </is>
       </c>
       <c r="R5" s="2" t="inlineStr">
         <is>
-          <t>167708</t>
+          <t>567686</t>
         </is>
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>163469</t>
+          <t>551752</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>172881</t>
+          <t>581888</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
         <is>
-          <t>82,21%</t>
+          <t>82,61%</t>
         </is>
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>80,13%</t>
+          <t>80,29%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>84,75%</t>
+          <t>84,68%</t>
         </is>
       </c>
     </row>
@@ -957,22 +957,22 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>503</t>
+          <t>289</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>82542</t>
+          <t>254897</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>82542</t>
+          <t>254897</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>82542</t>
+          <t>254897</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -992,22 +992,22 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>755</t>
+          <t>694</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>121452</t>
+          <t>432266</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>121452</t>
+          <t>432266</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>121452</t>
+          <t>432266</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
@@ -1027,22 +1027,22 @@
       </c>
       <c r="Q6" s="2" t="inlineStr">
         <is>
-          <t>1258</t>
+          <t>983</t>
         </is>
       </c>
       <c r="R6" s="2" t="inlineStr">
         <is>
-          <t>203994</t>
+          <t>687163</t>
         </is>
       </c>
       <c r="S6" s="2" t="inlineStr">
         <is>
-          <t>203994</t>
+          <t>687163</t>
         </is>
       </c>
       <c r="T6" s="2" t="inlineStr">
         <is>
-          <t>203994</t>
+          <t>687163</t>
         </is>
       </c>
       <c r="U6" s="2" t="inlineStr">
@@ -1074,107 +1074,107 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>155</t>
+          <t>58</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>25677</t>
+          <t>55422</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>21647</t>
+          <t>42021</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>29910</t>
+          <t>72751</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>5,56%</t>
+          <t>4,3%</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>4,69%</t>
+          <t>3,26%</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>6,48%</t>
+          <t>5,65%</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>269</t>
+          <t>154</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>44138</t>
+          <t>104459</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>39120</t>
+          <t>88772</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>49444</t>
+          <t>122719</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>9,93%</t>
+          <t>8,22%</t>
         </is>
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>8,8%</t>
+          <t>6,99%</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>11,13%</t>
+          <t>9,66%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
         <is>
-          <t>424</t>
+          <t>212</t>
         </is>
       </c>
       <c r="R7" s="2" t="inlineStr">
         <is>
-          <t>69815</t>
+          <t>159882</t>
         </is>
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>63329</t>
+          <t>137313</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>77102</t>
+          <t>183799</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
         <is>
-          <t>7,71%</t>
+          <t>6,25%</t>
         </is>
       </c>
       <c r="V7" s="2" t="inlineStr">
         <is>
-          <t>6,99%</t>
+          <t>5,37%</t>
         </is>
       </c>
       <c r="W7" s="2" t="inlineStr">
         <is>
-          <t>8,51%</t>
+          <t>7,18%</t>
         </is>
       </c>
     </row>
@@ -1187,107 +1187,107 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>2492</t>
+          <t>1053</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>436002</t>
+          <t>1232265</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>431769</t>
+          <t>1214936</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>440032</t>
+          <t>1245666</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>94,44%</t>
+          <t>95,7%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>93,52%</t>
+          <t>94,35%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>95,31%</t>
+          <t>96,74%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>2234</t>
+          <t>1485</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>400219</t>
+          <t>1166282</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>394913</t>
+          <t>1148022</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>405237</t>
+          <t>1181969</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>90,07%</t>
+          <t>91,78%</t>
         </is>
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>88,87%</t>
+          <t>90,34%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>91,2%</t>
+          <t>93,01%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
         <is>
-          <t>4726</t>
+          <t>2538</t>
         </is>
       </c>
       <c r="R8" s="2" t="inlineStr">
         <is>
-          <t>836220</t>
+          <t>2398546</t>
         </is>
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>828933</t>
+          <t>2374629</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>842706</t>
+          <t>2421115</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
         <is>
-          <t>92,29%</t>
+          <t>93,75%</t>
         </is>
       </c>
       <c r="V8" s="2" t="inlineStr">
         <is>
-          <t>91,49%</t>
+          <t>92,82%</t>
         </is>
       </c>
       <c r="W8" s="2" t="inlineStr">
         <is>
-          <t>93,01%</t>
+          <t>94,63%</t>
         </is>
       </c>
     </row>
@@ -1300,22 +1300,22 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>2647</t>
+          <t>1111</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>461679</t>
+          <t>1287687</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>461679</t>
+          <t>1287687</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>461679</t>
+          <t>1287687</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1335,22 +1335,22 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>2503</t>
+          <t>1639</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>444357</t>
+          <t>1270741</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>444357</t>
+          <t>1270741</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>444357</t>
+          <t>1270741</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -1370,22 +1370,22 @@
       </c>
       <c r="Q9" s="2" t="inlineStr">
         <is>
-          <t>5150</t>
+          <t>2750</t>
         </is>
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
-          <t>906035</t>
+          <t>2558428</t>
         </is>
       </c>
       <c r="S9" s="2" t="inlineStr">
         <is>
-          <t>906035</t>
+          <t>2558428</t>
         </is>
       </c>
       <c r="T9" s="2" t="inlineStr">
         <is>
-          <t>906035</t>
+          <t>2558428</t>
         </is>
       </c>
       <c r="U9" s="2" t="inlineStr">
@@ -1417,107 +1417,107 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>24</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>5316</t>
+          <t>22197</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>3636</t>
+          <t>14511</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>7713</t>
+          <t>33349</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>3,03%</t>
+          <t>4,35%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>2,07%</t>
+          <t>2,85%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>4,39%</t>
+          <t>6,54%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>44</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>9348</t>
+          <t>30071</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>6900</t>
+          <t>21825</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>12522</t>
+          <t>40348</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>4,1%</t>
+          <t>6,07%</t>
         </is>
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>3,03%</t>
+          <t>4,41%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>5,49%</t>
+          <t>8,15%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
         <is>
-          <t>79</t>
+          <t>68</t>
         </is>
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
-          <t>14664</t>
+          <t>52268</t>
         </is>
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>11611</t>
+          <t>40751</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>18709</t>
+          <t>66540</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
         <is>
-          <t>3,63%</t>
+          <t>5,2%</t>
         </is>
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>2,88%</t>
+          <t>4,05%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>4,64%</t>
+          <t>6,62%</t>
         </is>
       </c>
     </row>
@@ -1530,107 +1530,107 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>879</t>
+          <t>463</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>170245</t>
+          <t>487682</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>167848</t>
+          <t>476530</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>171925</t>
+          <t>495368</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>96,97%</t>
+          <t>95,65%</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>95,61%</t>
+          <t>93,46%</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>97,93%</t>
+          <t>97,15%</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>1148</t>
+          <t>621</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>218646</t>
+          <t>465127</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>215472</t>
+          <t>454850</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>221094</t>
+          <t>473373</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>95,9%</t>
+          <t>93,93%</t>
         </is>
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>94,51%</t>
+          <t>91,85%</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>96,97%</t>
+          <t>95,59%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
         <is>
-          <t>2027</t>
+          <t>1084</t>
         </is>
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
-          <t>388891</t>
+          <t>952809</t>
         </is>
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>384846</t>
+          <t>938537</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>391944</t>
+          <t>964326</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
         <is>
-          <t>96,37%</t>
+          <t>94,8%</t>
         </is>
       </c>
       <c r="V11" s="2" t="inlineStr">
         <is>
-          <t>95,36%</t>
+          <t>93,38%</t>
         </is>
       </c>
       <c r="W11" s="2" t="inlineStr">
         <is>
-          <t>97,12%</t>
+          <t>95,95%</t>
         </is>
       </c>
     </row>
@@ -1643,22 +1643,22 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>907</t>
+          <t>487</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>175561</t>
+          <t>509879</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>175561</t>
+          <t>509879</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>175561</t>
+          <t>509879</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1678,22 +1678,22 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>1199</t>
+          <t>665</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>227994</t>
+          <t>495198</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>227994</t>
+          <t>495198</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>227994</t>
+          <t>495198</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
@@ -1713,22 +1713,22 @@
       </c>
       <c r="Q12" s="2" t="inlineStr">
         <is>
-          <t>2106</t>
+          <t>1152</t>
         </is>
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t>403555</t>
+          <t>1005077</t>
         </is>
       </c>
       <c r="S12" s="2" t="inlineStr">
         <is>
-          <t>403555</t>
+          <t>1005077</t>
         </is>
       </c>
       <c r="T12" s="2" t="inlineStr">
         <is>
-          <t>403555</t>
+          <t>1005077</t>
         </is>
       </c>
       <c r="U12" s="2" t="inlineStr">
@@ -1760,107 +1760,107 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>237</t>
+          <t>117</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>39511</t>
+          <t>103940</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>34446</t>
+          <t>86814</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>44799</t>
+          <t>126131</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>5,49%</t>
+          <t>5,06%</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>4,79%</t>
+          <t>4,23%</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>6,22%</t>
+          <t>6,15%</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>498</t>
+          <t>351</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>81254</t>
+          <t>227686</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>74823</t>
+          <t>203588</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>89186</t>
+          <t>249495</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>10,24%</t>
+          <t>10,36%</t>
         </is>
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>9,43%</t>
+          <t>9,26%</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>11,24%</t>
+          <t>11,35%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
         <is>
-          <t>735</t>
+          <t>468</t>
         </is>
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>120765</t>
+          <t>331626</t>
         </is>
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>111932</t>
+          <t>301459</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>130806</t>
+          <t>365681</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
         <is>
-          <t>7,98%</t>
+          <t>7,8%</t>
         </is>
       </c>
       <c r="V13" s="2" t="inlineStr">
         <is>
-          <t>7,4%</t>
+          <t>7,09%</t>
         </is>
       </c>
       <c r="W13" s="2" t="inlineStr">
         <is>
-          <t>8,64%</t>
+          <t>8,6%</t>
         </is>
       </c>
     </row>
@@ -1873,107 +1873,107 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>3820</t>
+          <t>1770</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>680270</t>
+          <t>1948524</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>674982</t>
+          <t>1926333</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>685335</t>
+          <t>1965650</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>94,51%</t>
+          <t>94,94%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>93,78%</t>
+          <t>93,85%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>95,21%</t>
+          <t>95,77%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>3959</t>
+          <t>2647</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>712549</t>
+          <t>1970518</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>704617</t>
+          <t>1948709</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>718980</t>
+          <t>1994616</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>89,76%</t>
+          <t>89,64%</t>
         </is>
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>88,76%</t>
+          <t>88,65%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>90,57%</t>
+          <t>90,74%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
         <is>
-          <t>7779</t>
+          <t>4417</t>
         </is>
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
-          <t>1392819</t>
+          <t>3919042</t>
         </is>
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>1382778</t>
+          <t>3884987</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>1401652</t>
+          <t>3949209</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
         <is>
-          <t>92,02%</t>
+          <t>92,2%</t>
         </is>
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>91,36%</t>
+          <t>91,4%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>92,6%</t>
+          <t>92,91%</t>
         </is>
       </c>
     </row>
@@ -1986,22 +1986,22 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>4057</t>
+          <t>1887</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>719781</t>
+          <t>2052464</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>719781</t>
+          <t>2052464</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>719781</t>
+          <t>2052464</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -2021,22 +2021,22 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>4457</t>
+          <t>2998</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>793803</t>
+          <t>2198204</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>793803</t>
+          <t>2198204</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>793803</t>
+          <t>2198204</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
@@ -2056,22 +2056,22 @@
       </c>
       <c r="Q15" s="2" t="inlineStr">
         <is>
-          <t>8514</t>
+          <t>4885</t>
         </is>
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>1513584</t>
+          <t>4250668</t>
         </is>
       </c>
       <c r="S15" s="2" t="inlineStr">
         <is>
-          <t>1513584</t>
+          <t>4250668</t>
         </is>
       </c>
       <c r="T15" s="2" t="inlineStr">
         <is>
-          <t>1513584</t>
+          <t>4250668</t>
         </is>
       </c>
       <c r="U15" s="2" t="inlineStr">
@@ -2157,7 +2157,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Consumo de hipnóticos en Andalucia (tasa de respuesta: 99,84%)</t>
+          <t>Consumo de hipnóticos en Barcelona (tasa de respuesta: 99,77%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -2342,107 +2342,107 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>29</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>24738</t>
+          <t>15165</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>16519</t>
+          <t>9209</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>32857</t>
+          <t>25174</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>10,86%</t>
+          <t>15,39%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>7,25%</t>
+          <t>9,34%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>14,42%</t>
+          <t>25,54%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>153</t>
+          <t>76</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>89270</t>
+          <t>36415</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>76555</t>
+          <t>27527</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>106620</t>
+          <t>47855</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>22,61%</t>
+          <t>30,51%</t>
         </is>
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>19,39%</t>
+          <t>23,07%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>27,01%</t>
+          <t>40,1%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
         <is>
-          <t>188</t>
+          <t>105</t>
         </is>
       </c>
       <c r="R4" s="2" t="inlineStr">
         <is>
-          <t>114008</t>
+          <t>51580</t>
         </is>
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>98868</t>
+          <t>39122</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>131284</t>
+          <t>65033</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
         <is>
-          <t>18,31%</t>
+          <t>23,67%</t>
         </is>
       </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>15,88%</t>
+          <t>17,95%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>21,09%</t>
+          <t>29,85%</t>
         </is>
       </c>
     </row>
@@ -2455,107 +2455,107 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>254</t>
+          <t>166</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>203069</t>
+          <t>83390</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>194950</t>
+          <t>73381</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>211288</t>
+          <t>89346</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>89,14%</t>
+          <t>84,61%</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>85,58%</t>
+          <t>74,46%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>92,75%</t>
+          <t>90,66%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>541</t>
+          <t>218</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>305490</t>
+          <t>82929</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>288140</t>
+          <t>71489</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>318205</t>
+          <t>91817</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>77,39%</t>
+          <t>69,49%</t>
         </is>
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>72,99%</t>
+          <t>59,9%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>80,61%</t>
+          <t>76,93%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
         <is>
-          <t>795</t>
+          <t>384</t>
         </is>
       </c>
       <c r="R5" s="2" t="inlineStr">
         <is>
-          <t>508559</t>
+          <t>166319</t>
         </is>
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>491283</t>
+          <t>152866</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>523699</t>
+          <t>178777</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
         <is>
-          <t>81,69%</t>
+          <t>76,33%</t>
         </is>
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>78,91%</t>
+          <t>70,15%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>84,12%</t>
+          <t>82,05%</t>
         </is>
       </c>
     </row>
@@ -2568,22 +2568,22 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>289</t>
+          <t>195</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>227807</t>
+          <t>98555</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>227807</t>
+          <t>98555</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>227807</t>
+          <t>98555</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -2603,22 +2603,22 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>694</t>
+          <t>294</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>394760</t>
+          <t>119344</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>394760</t>
+          <t>119344</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>394760</t>
+          <t>119344</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
@@ -2638,22 +2638,22 @@
       </c>
       <c r="Q6" s="2" t="inlineStr">
         <is>
-          <t>983</t>
+          <t>489</t>
         </is>
       </c>
       <c r="R6" s="2" t="inlineStr">
         <is>
-          <t>622567</t>
+          <t>217899</t>
         </is>
       </c>
       <c r="S6" s="2" t="inlineStr">
         <is>
-          <t>622567</t>
+          <t>217899</t>
         </is>
       </c>
       <c r="T6" s="2" t="inlineStr">
         <is>
-          <t>622567</t>
+          <t>217899</t>
         </is>
       </c>
       <c r="U6" s="2" t="inlineStr">
@@ -2685,107 +2685,107 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>58</t>
+          <t>64</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>49385</t>
+          <t>29242</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>28222</t>
+          <t>22785</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>68819</t>
+          <t>37350</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>3,5%</t>
+          <t>8,2%</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>2,0%</t>
+          <t>6,39%</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>4,88%</t>
+          <t>10,48%</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>154</t>
+          <t>118</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>94475</t>
+          <t>49298</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>57970</t>
+          <t>40843</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>121520</t>
+          <t>58207</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>6,82%</t>
+          <t>13,92%</t>
         </is>
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>4,18%</t>
+          <t>11,53%</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>8,77%</t>
+          <t>16,43%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
         <is>
-          <t>212</t>
+          <t>182</t>
         </is>
       </c>
       <c r="R7" s="2" t="inlineStr">
         <is>
-          <t>143860</t>
+          <t>78540</t>
         </is>
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>103676</t>
+          <t>68186</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>182137</t>
+          <t>92282</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
         <is>
-          <t>5,15%</t>
+          <t>11,05%</t>
         </is>
       </c>
       <c r="V7" s="2" t="inlineStr">
         <is>
-          <t>3,71%</t>
+          <t>9,59%</t>
         </is>
       </c>
       <c r="W7" s="2" t="inlineStr">
         <is>
-          <t>6,52%</t>
+          <t>12,98%</t>
         </is>
       </c>
     </row>
@@ -2798,107 +2798,107 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>1053</t>
+          <t>730</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>1360008</t>
+          <t>327289</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>1340574</t>
+          <t>319181</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>1381171</t>
+          <t>333746</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>96,5%</t>
+          <t>91,8%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>95,12%</t>
+          <t>89,52%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>98,0%</t>
+          <t>93,61%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>1485</t>
+          <t>690</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>1291336</t>
+          <t>304980</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>1264291</t>
+          <t>296071</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>1327841</t>
+          <t>313435</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>93,18%</t>
+          <t>86,08%</t>
         </is>
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>91,23%</t>
+          <t>83,57%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>95,82%</t>
+          <t>88,47%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
         <is>
-          <t>2538</t>
+          <t>1420</t>
         </is>
       </c>
       <c r="R8" s="2" t="inlineStr">
         <is>
-          <t>2651344</t>
+          <t>632270</t>
         </is>
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>2613067</t>
+          <t>618528</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>2691528</t>
+          <t>642624</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
         <is>
-          <t>94,85%</t>
+          <t>88,95%</t>
         </is>
       </c>
       <c r="V8" s="2" t="inlineStr">
         <is>
-          <t>93,48%</t>
+          <t>87,02%</t>
         </is>
       </c>
       <c r="W8" s="2" t="inlineStr">
         <is>
-          <t>96,29%</t>
+          <t>90,41%</t>
         </is>
       </c>
     </row>
@@ -2911,22 +2911,22 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>1111</t>
+          <t>794</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>1409393</t>
+          <t>356531</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>1409393</t>
+          <t>356531</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>1409393</t>
+          <t>356531</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -2946,22 +2946,22 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>1639</t>
+          <t>808</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>1385811</t>
+          <t>354278</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>1385811</t>
+          <t>354278</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>1385811</t>
+          <t>354278</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -2981,22 +2981,22 @@
       </c>
       <c r="Q9" s="2" t="inlineStr">
         <is>
-          <t>2750</t>
+          <t>1602</t>
         </is>
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
-          <t>2795204</t>
+          <t>710810</t>
         </is>
       </c>
       <c r="S9" s="2" t="inlineStr">
         <is>
-          <t>2795204</t>
+          <t>710810</t>
         </is>
       </c>
       <c r="T9" s="2" t="inlineStr">
         <is>
-          <t>2795204</t>
+          <t>710810</t>
         </is>
       </c>
       <c r="U9" s="2" t="inlineStr">
@@ -3028,107 +3028,107 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>39</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>20809</t>
+          <t>11718</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>13511</t>
+          <t>7935</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>30948</t>
+          <t>16431</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>4,53%</t>
+          <t>5,23%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>2,94%</t>
+          <t>3,54%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>6,73%</t>
+          <t>7,33%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>75</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>26719</t>
+          <t>26573</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>19680</t>
+          <t>20401</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>36193</t>
+          <t>34212</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>6,03%</t>
+          <t>9,4%</t>
         </is>
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>4,44%</t>
+          <t>7,22%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>8,17%</t>
+          <t>12,1%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
         <is>
-          <t>68</t>
+          <t>114</t>
         </is>
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
-          <t>47528</t>
+          <t>38291</t>
         </is>
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>36676</t>
+          <t>31217</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>61060</t>
+          <t>47033</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
         <is>
-          <t>5,26%</t>
+          <t>7,56%</t>
         </is>
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>4,06%</t>
+          <t>6,16%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>6,76%</t>
+          <t>9,28%</t>
         </is>
       </c>
     </row>
@@ -3141,107 +3141,107 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>463</t>
+          <t>603</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>438992</t>
+          <t>212328</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>428853</t>
+          <t>207615</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>446290</t>
+          <t>216111</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>95,47%</t>
+          <t>94,77%</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>93,27%</t>
+          <t>92,67%</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>97,06%</t>
+          <t>96,46%</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>621</t>
+          <t>686</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>416495</t>
+          <t>256109</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>407021</t>
+          <t>248470</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>423534</t>
+          <t>262281</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>93,97%</t>
+          <t>90,6%</t>
         </is>
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>91,83%</t>
+          <t>87,9%</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>95,56%</t>
+          <t>92,78%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
         <is>
-          <t>1084</t>
+          <t>1289</t>
         </is>
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
-          <t>855487</t>
+          <t>468437</t>
         </is>
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>841955</t>
+          <t>459695</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>866339</t>
+          <t>475511</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
         <is>
-          <t>94,74%</t>
+          <t>92,44%</t>
         </is>
       </c>
       <c r="V11" s="2" t="inlineStr">
         <is>
-          <t>93,24%</t>
+          <t>90,72%</t>
         </is>
       </c>
       <c r="W11" s="2" t="inlineStr">
         <is>
-          <t>95,94%</t>
+          <t>93,84%</t>
         </is>
       </c>
     </row>
@@ -3254,22 +3254,22 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>487</t>
+          <t>642</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>459801</t>
+          <t>224046</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>459801</t>
+          <t>224046</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>459801</t>
+          <t>224046</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -3289,22 +3289,22 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>665</t>
+          <t>761</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>443214</t>
+          <t>282682</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>443214</t>
+          <t>282682</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>443214</t>
+          <t>282682</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
@@ -3324,22 +3324,22 @@
       </c>
       <c r="Q12" s="2" t="inlineStr">
         <is>
-          <t>1152</t>
+          <t>1403</t>
         </is>
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t>903015</t>
+          <t>506728</t>
         </is>
       </c>
       <c r="S12" s="2" t="inlineStr">
         <is>
-          <t>903015</t>
+          <t>506728</t>
         </is>
       </c>
       <c r="T12" s="2" t="inlineStr">
         <is>
-          <t>903015</t>
+          <t>506728</t>
         </is>
       </c>
       <c r="U12" s="2" t="inlineStr">
@@ -3371,107 +3371,107 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>117</t>
+          <t>132</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>94931</t>
+          <t>56125</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>64186</t>
+          <t>46101</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>119724</t>
+          <t>68221</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>4,53%</t>
+          <t>8,26%</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>3,06%</t>
+          <t>6,79%</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>5,71%</t>
+          <t>10,05%</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>351</t>
+          <t>269</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>210465</t>
+          <t>112287</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>152112</t>
+          <t>97159</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>244388</t>
+          <t>128402</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>9,46%</t>
+          <t>14,85%</t>
         </is>
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>6,84%</t>
+          <t>12,85%</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>10,99%</t>
+          <t>16,98%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
         <is>
-          <t>468</t>
+          <t>401</t>
         </is>
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>305396</t>
+          <t>168412</t>
         </is>
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>247100</t>
+          <t>149906</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>352090</t>
+          <t>187275</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
         <is>
-          <t>7,07%</t>
+          <t>11,73%</t>
         </is>
       </c>
       <c r="V13" s="2" t="inlineStr">
         <is>
-          <t>5,72%</t>
+          <t>10,44%</t>
         </is>
       </c>
       <c r="W13" s="2" t="inlineStr">
         <is>
-          <t>8,15%</t>
+          <t>13,05%</t>
         </is>
       </c>
     </row>
@@ -3484,107 +3484,107 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>1770</t>
+          <t>1499</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>2002070</t>
+          <t>623007</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>1977277</t>
+          <t>610911</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>2032815</t>
+          <t>633031</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>95,47%</t>
+          <t>91,74%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>94,29%</t>
+          <t>89,95%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>96,94%</t>
+          <t>93,21%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>2647</t>
+          <t>1594</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>2013320</t>
+          <t>644018</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>1979397</t>
+          <t>627903</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>2071673</t>
+          <t>659146</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>90,54%</t>
+          <t>85,15%</t>
         </is>
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>89,01%</t>
+          <t>83,02%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>93,16%</t>
+          <t>87,15%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
         <is>
-          <t>4417</t>
+          <t>3093</t>
         </is>
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
-          <t>4015390</t>
+          <t>1267024</t>
         </is>
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>3968696</t>
+          <t>1248161</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>4073686</t>
+          <t>1285530</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
         <is>
-          <t>92,93%</t>
+          <t>88,27%</t>
         </is>
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>91,85%</t>
+          <t>86,95%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>94,28%</t>
+          <t>89,56%</t>
         </is>
       </c>
     </row>
@@ -3597,22 +3597,22 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>1887</t>
+          <t>1631</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>2097001</t>
+          <t>679132</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>2097001</t>
+          <t>679132</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>2097001</t>
+          <t>679132</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -3632,22 +3632,22 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>2998</t>
+          <t>1863</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>2223785</t>
+          <t>756305</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>2223785</t>
+          <t>756305</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>2223785</t>
+          <t>756305</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
@@ -3667,22 +3667,22 @@
       </c>
       <c r="Q15" s="2" t="inlineStr">
         <is>
-          <t>4885</t>
+          <t>3494</t>
         </is>
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>4320786</t>
+          <t>1435436</t>
         </is>
       </c>
       <c r="S15" s="2" t="inlineStr">
         <is>
-          <t>4320786</t>
+          <t>1435436</t>
         </is>
       </c>
       <c r="T15" s="2" t="inlineStr">
         <is>
-          <t>4320786</t>
+          <t>1435436</t>
         </is>
       </c>
       <c r="U15" s="2" t="inlineStr">
@@ -5379,7 +5379,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Consumo de hipnóticos en Barcelona (tasa de respuesta: 99,77%)</t>
+          <t>Consumo de hipnóticos en País Vasco (tasa de respuesta: 99,45%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -5564,107 +5564,107 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>54</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>15165</t>
+          <t>8518</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>9209</t>
+          <t>6470</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>25174</t>
+          <t>11005</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>15,39%</t>
+          <t>10,32%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>9,34%</t>
+          <t>7,84%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>25,54%</t>
+          <t>13,33%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>76</t>
+          <t>178</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>36415</t>
+          <t>27768</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>27527</t>
+          <t>24346</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>47855</t>
+          <t>32389</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>30,51%</t>
+          <t>22,86%</t>
         </is>
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>23,07%</t>
+          <t>20,05%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>40,1%</t>
+          <t>26,67%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
         <is>
-          <t>105</t>
+          <t>232</t>
         </is>
       </c>
       <c r="R4" s="2" t="inlineStr">
         <is>
-          <t>51580</t>
+          <t>36286</t>
         </is>
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>39122</t>
+          <t>31113</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>65033</t>
+          <t>40525</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
         <is>
-          <t>23,67%</t>
+          <t>17,79%</t>
         </is>
       </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>17,95%</t>
+          <t>15,25%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>29,85%</t>
+          <t>19,87%</t>
         </is>
       </c>
     </row>
@@ -5677,107 +5677,107 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>166</t>
+          <t>449</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>83390</t>
+          <t>74024</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>73381</t>
+          <t>71537</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>89346</t>
+          <t>76072</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>84,61%</t>
+          <t>89,68%</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>74,46%</t>
+          <t>86,67%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>90,66%</t>
+          <t>92,16%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>218</t>
+          <t>577</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>82929</t>
+          <t>93684</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>71489</t>
+          <t>89063</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>91817</t>
+          <t>97106</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>69,49%</t>
+          <t>77,14%</t>
         </is>
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>59,9%</t>
+          <t>73,33%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>76,93%</t>
+          <t>79,95%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
         <is>
-          <t>384</t>
+          <t>1026</t>
         </is>
       </c>
       <c r="R5" s="2" t="inlineStr">
         <is>
-          <t>166319</t>
+          <t>167708</t>
         </is>
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>152866</t>
+          <t>163469</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>178777</t>
+          <t>172881</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
         <is>
-          <t>76,33%</t>
+          <t>82,21%</t>
         </is>
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>70,15%</t>
+          <t>80,13%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>82,05%</t>
+          <t>84,75%</t>
         </is>
       </c>
     </row>
@@ -5790,22 +5790,22 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>195</t>
+          <t>503</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>98555</t>
+          <t>82542</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>98555</t>
+          <t>82542</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>98555</t>
+          <t>82542</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -5825,22 +5825,22 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>294</t>
+          <t>755</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>119344</t>
+          <t>121452</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>119344</t>
+          <t>121452</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>119344</t>
+          <t>121452</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
@@ -5860,22 +5860,22 @@
       </c>
       <c r="Q6" s="2" t="inlineStr">
         <is>
-          <t>489</t>
+          <t>1258</t>
         </is>
       </c>
       <c r="R6" s="2" t="inlineStr">
         <is>
-          <t>217899</t>
+          <t>203994</t>
         </is>
       </c>
       <c r="S6" s="2" t="inlineStr">
         <is>
-          <t>217899</t>
+          <t>203994</t>
         </is>
       </c>
       <c r="T6" s="2" t="inlineStr">
         <is>
-          <t>217899</t>
+          <t>203994</t>
         </is>
       </c>
       <c r="U6" s="2" t="inlineStr">
@@ -5907,107 +5907,107 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>155</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>29242</t>
+          <t>25677</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>22785</t>
+          <t>21647</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>37350</t>
+          <t>29910</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>8,2%</t>
+          <t>5,56%</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>6,39%</t>
+          <t>4,69%</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>10,48%</t>
+          <t>6,48%</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>118</t>
+          <t>269</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>49298</t>
+          <t>44138</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>40843</t>
+          <t>39120</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>58207</t>
+          <t>49444</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>13,92%</t>
+          <t>9,93%</t>
         </is>
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>11,53%</t>
+          <t>8,8%</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>16,43%</t>
+          <t>11,13%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
         <is>
-          <t>182</t>
+          <t>424</t>
         </is>
       </c>
       <c r="R7" s="2" t="inlineStr">
         <is>
-          <t>78540</t>
+          <t>69815</t>
         </is>
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>68186</t>
+          <t>63329</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>92282</t>
+          <t>77102</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
         <is>
-          <t>11,05%</t>
+          <t>7,71%</t>
         </is>
       </c>
       <c r="V7" s="2" t="inlineStr">
         <is>
-          <t>9,59%</t>
+          <t>6,99%</t>
         </is>
       </c>
       <c r="W7" s="2" t="inlineStr">
         <is>
-          <t>12,98%</t>
+          <t>8,51%</t>
         </is>
       </c>
     </row>
@@ -6020,107 +6020,107 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>730</t>
+          <t>2492</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>327289</t>
+          <t>436002</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>319181</t>
+          <t>431769</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>333746</t>
+          <t>440032</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>91,8%</t>
+          <t>94,44%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>89,52%</t>
+          <t>93,52%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>93,61%</t>
+          <t>95,31%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>690</t>
+          <t>2234</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>304980</t>
+          <t>400219</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>296071</t>
+          <t>394913</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>313435</t>
+          <t>405237</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>86,08%</t>
+          <t>90,07%</t>
         </is>
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>83,57%</t>
+          <t>88,87%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>88,47%</t>
+          <t>91,2%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
         <is>
-          <t>1420</t>
+          <t>4726</t>
         </is>
       </c>
       <c r="R8" s="2" t="inlineStr">
         <is>
-          <t>632270</t>
+          <t>836220</t>
         </is>
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>618528</t>
+          <t>828933</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>642624</t>
+          <t>842706</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
         <is>
-          <t>88,95%</t>
+          <t>92,29%</t>
         </is>
       </c>
       <c r="V8" s="2" t="inlineStr">
         <is>
-          <t>87,02%</t>
+          <t>91,49%</t>
         </is>
       </c>
       <c r="W8" s="2" t="inlineStr">
         <is>
-          <t>90,41%</t>
+          <t>93,01%</t>
         </is>
       </c>
     </row>
@@ -6133,22 +6133,22 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>794</t>
+          <t>2647</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>356531</t>
+          <t>461679</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>356531</t>
+          <t>461679</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>356531</t>
+          <t>461679</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -6168,22 +6168,22 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>808</t>
+          <t>2503</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>354278</t>
+          <t>444357</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>354278</t>
+          <t>444357</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>354278</t>
+          <t>444357</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -6203,22 +6203,22 @@
       </c>
       <c r="Q9" s="2" t="inlineStr">
         <is>
-          <t>1602</t>
+          <t>5150</t>
         </is>
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
-          <t>710810</t>
+          <t>906035</t>
         </is>
       </c>
       <c r="S9" s="2" t="inlineStr">
         <is>
-          <t>710810</t>
+          <t>906035</t>
         </is>
       </c>
       <c r="T9" s="2" t="inlineStr">
         <is>
-          <t>710810</t>
+          <t>906035</t>
         </is>
       </c>
       <c r="U9" s="2" t="inlineStr">
@@ -6250,107 +6250,107 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>28</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>11718</t>
+          <t>5316</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>7935</t>
+          <t>3636</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>16431</t>
+          <t>7713</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>5,23%</t>
+          <t>3,03%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>3,54%</t>
+          <t>2,07%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>7,33%</t>
+          <t>4,39%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>75</t>
+          <t>51</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>26573</t>
+          <t>9348</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>20401</t>
+          <t>6900</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>34212</t>
+          <t>12522</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>9,4%</t>
+          <t>4,1%</t>
         </is>
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>7,22%</t>
+          <t>3,03%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>12,1%</t>
+          <t>5,49%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
         <is>
-          <t>114</t>
+          <t>79</t>
         </is>
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
-          <t>38291</t>
+          <t>14664</t>
         </is>
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>31217</t>
+          <t>11611</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>47033</t>
+          <t>18709</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
         <is>
-          <t>7,56%</t>
+          <t>3,63%</t>
         </is>
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>6,16%</t>
+          <t>2,88%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>9,28%</t>
+          <t>4,64%</t>
         </is>
       </c>
     </row>
@@ -6363,107 +6363,107 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>603</t>
+          <t>879</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>212328</t>
+          <t>170245</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>207615</t>
+          <t>167848</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>216111</t>
+          <t>171925</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>94,77%</t>
+          <t>96,97%</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>92,67%</t>
+          <t>95,61%</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>96,46%</t>
+          <t>97,93%</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>686</t>
+          <t>1148</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>256109</t>
+          <t>218646</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>248470</t>
+          <t>215472</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>262281</t>
+          <t>221094</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>90,6%</t>
+          <t>95,9%</t>
         </is>
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>87,9%</t>
+          <t>94,51%</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>92,78%</t>
+          <t>96,97%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
         <is>
-          <t>1289</t>
+          <t>2027</t>
         </is>
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
-          <t>468437</t>
+          <t>388891</t>
         </is>
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>459695</t>
+          <t>384846</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>475511</t>
+          <t>391944</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
         <is>
-          <t>92,44%</t>
+          <t>96,37%</t>
         </is>
       </c>
       <c r="V11" s="2" t="inlineStr">
         <is>
-          <t>90,72%</t>
+          <t>95,36%</t>
         </is>
       </c>
       <c r="W11" s="2" t="inlineStr">
         <is>
-          <t>93,84%</t>
+          <t>97,12%</t>
         </is>
       </c>
     </row>
@@ -6476,22 +6476,22 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>642</t>
+          <t>907</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>224046</t>
+          <t>175561</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>224046</t>
+          <t>175561</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>224046</t>
+          <t>175561</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -6511,22 +6511,22 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>761</t>
+          <t>1199</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>282682</t>
+          <t>227994</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>282682</t>
+          <t>227994</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>282682</t>
+          <t>227994</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
@@ -6546,22 +6546,22 @@
       </c>
       <c r="Q12" s="2" t="inlineStr">
         <is>
-          <t>1403</t>
+          <t>2106</t>
         </is>
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t>506728</t>
+          <t>403555</t>
         </is>
       </c>
       <c r="S12" s="2" t="inlineStr">
         <is>
-          <t>506728</t>
+          <t>403555</t>
         </is>
       </c>
       <c r="T12" s="2" t="inlineStr">
         <is>
-          <t>506728</t>
+          <t>403555</t>
         </is>
       </c>
       <c r="U12" s="2" t="inlineStr">
@@ -6593,107 +6593,107 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>132</t>
+          <t>237</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>56125</t>
+          <t>39511</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>46101</t>
+          <t>34446</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>68221</t>
+          <t>44799</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>8,26%</t>
+          <t>5,49%</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>6,79%</t>
+          <t>4,79%</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>10,05%</t>
+          <t>6,22%</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>269</t>
+          <t>498</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>112287</t>
+          <t>81254</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>97159</t>
+          <t>74823</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>128402</t>
+          <t>89186</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>14,85%</t>
+          <t>10,24%</t>
         </is>
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>12,85%</t>
+          <t>9,43%</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>16,98%</t>
+          <t>11,24%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
         <is>
-          <t>401</t>
+          <t>735</t>
         </is>
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>168412</t>
+          <t>120765</t>
         </is>
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>149906</t>
+          <t>111932</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>187275</t>
+          <t>130806</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
         <is>
-          <t>11,73%</t>
+          <t>7,98%</t>
         </is>
       </c>
       <c r="V13" s="2" t="inlineStr">
         <is>
-          <t>10,44%</t>
+          <t>7,4%</t>
         </is>
       </c>
       <c r="W13" s="2" t="inlineStr">
         <is>
-          <t>13,05%</t>
+          <t>8,64%</t>
         </is>
       </c>
     </row>
@@ -6706,107 +6706,107 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>1499</t>
+          <t>3820</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>623007</t>
+          <t>680270</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>610911</t>
+          <t>674982</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>633031</t>
+          <t>685335</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>91,74%</t>
+          <t>94,51%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>89,95%</t>
+          <t>93,78%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>93,21%</t>
+          <t>95,21%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>1594</t>
+          <t>3959</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>644018</t>
+          <t>712549</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>627903</t>
+          <t>704617</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>659146</t>
+          <t>718980</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>85,15%</t>
+          <t>89,76%</t>
         </is>
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>83,02%</t>
+          <t>88,76%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>87,15%</t>
+          <t>90,57%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
         <is>
-          <t>3093</t>
+          <t>7779</t>
         </is>
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
-          <t>1267024</t>
+          <t>1392819</t>
         </is>
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>1248161</t>
+          <t>1382778</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>1285530</t>
+          <t>1401652</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
         <is>
-          <t>88,27%</t>
+          <t>92,02%</t>
         </is>
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>86,95%</t>
+          <t>91,36%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>89,56%</t>
+          <t>92,6%</t>
         </is>
       </c>
     </row>
@@ -6819,22 +6819,22 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>1631</t>
+          <t>4057</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>679132</t>
+          <t>719781</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>679132</t>
+          <t>719781</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>679132</t>
+          <t>719781</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -6854,22 +6854,22 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>1863</t>
+          <t>4457</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>756305</t>
+          <t>793803</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>756305</t>
+          <t>793803</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>756305</t>
+          <t>793803</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
@@ -6889,22 +6889,22 @@
       </c>
       <c r="Q15" s="2" t="inlineStr">
         <is>
-          <t>3494</t>
+          <t>8514</t>
         </is>
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>1435436</t>
+          <t>1513584</t>
         </is>
       </c>
       <c r="S15" s="2" t="inlineStr">
         <is>
-          <t>1435436</t>
+          <t>1513584</t>
         </is>
       </c>
       <c r="T15" s="2" t="inlineStr">
         <is>
-          <t>1435436</t>
+          <t>1513584</t>
         </is>
       </c>
       <c r="U15" s="2" t="inlineStr">
